--- a/출처.xlsx
+++ b/출처.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\웹디자인 과제\webdesignProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wngml\wngml02git\webdesignProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD46DF8-D9A2-4BFC-9815-15D66E6293A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC8B45A-8C11-44E6-953A-962C7B6DDEF9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="2610" windowWidth="17940" windowHeight="13860" xr2:uid="{77592EE3-A7D9-4ECF-A2DA-A06D1B777837}"/>
+    <workbookView xWindow="1890" yWindow="430" windowWidth="13000" windowHeight="8330" xr2:uid="{77592EE3-A7D9-4ECF-A2DA-A06D1B777837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>웹디자인 출처</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +65,9 @@
   </si>
   <si>
     <t>https://snuac.snu.ac.kr/?p=32523</t>
+  </si>
+  <si>
+    <t>https://gonggam.korea.kr/newsContentView.es?mid=a10203000000&amp;section_id=NCCD_CULTURE&amp;content=NC002&amp;news_id=EBC6D4010DE24203E0540021F662AC5F</t>
   </si>
 </sst>
 </file>
@@ -457,25 +454,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB89AAC-E402-4B54-9725-D10F308AE1F7}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="25.58203125" customWidth="1"/>
     <col min="2" max="2" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -483,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -491,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -499,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -507,12 +504,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/출처.xlsx
+++ b/출처.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wngml\wngml02git\webdesignProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\웹디자인 과제\webdesignProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC8B45A-8C11-44E6-953A-962C7B6DDEF9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032786F9-D163-405F-B5B6-C9C935DF2406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="430" windowWidth="13000" windowHeight="8330" xr2:uid="{77592EE3-A7D9-4ECF-A2DA-A06D1B777837}"/>
+    <workbookView xWindow="6855" yWindow="1740" windowWidth="17940" windowHeight="13860" xr2:uid="{77592EE3-A7D9-4ECF-A2DA-A06D1B777837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>웹디자인 출처</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>https://gonggam.korea.kr/newsContentView.es?mid=a10203000000&amp;section_id=NCCD_CULTURE&amp;content=NC002&amp;news_id=EBC6D4010DE24203E0540021F662AC5F</t>
+  </si>
+  <si>
+    <t>https://kccuk.org.uk/ko/about-korea/culture-and-arts/hallyu-korean-wave/</t>
   </si>
 </sst>
 </file>
@@ -454,25 +457,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB89AAC-E402-4B54-9725-D10F308AE1F7}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.58203125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
     <col min="2" max="2" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -480,7 +483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -488,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -496,7 +499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -504,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -512,9 +515,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/출처.xlsx
+++ b/출처.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\웹디자인 과제\webdesignProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032786F9-D163-405F-B5B6-C9C935DF2406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3A70FE-00EF-4306-B8FE-4325299FD653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="1740" windowWidth="17940" windowHeight="13860" xr2:uid="{77592EE3-A7D9-4ECF-A2DA-A06D1B777837}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77592EE3-A7D9-4ECF-A2DA-A06D1B777837}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>웹디자인 출처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,45 +35,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>베이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2020년 트렌드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://snuac.snu.ac.kr/?p=32523</t>
   </si>
   <si>
     <t>http://nationalatlas.ngii.go.kr/pages/page_517.php#prettyPhoto</t>
-  </si>
-  <si>
-    <t>2020년 트렌드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://tradenavi.or.kr/CmsWeb/resource/attach/report/[501]2020%20%EA%B8%80%EB%A1%9C%EB%B2%8C%20%ED%95%9C%EB%A5%98%20%ED%8A%B8%EB%A0%8C%EB%93%9C.pdf</t>
-  </si>
-  <si>
-    <t>드라마 역사? 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kofice.or.kr/b20industry/b20_industry_03_view.asp?seq=8074</t>
-  </si>
-  <si>
-    <t>kpop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://snuac.snu.ac.kr/?p=32523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국국제문화교류진흥원 뉴스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가지도집+문화체육관광부 조사 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kofice.or.kr/b20industry/b20_industry_03_view.asp?seq=8073</t>
+  </si>
+  <si>
+    <t>서울대학교아시아연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://gonggam.korea.kr/newsContentView.es?mid=a10203000000&amp;section_id=NCCD_CULTURE&amp;content=NC002&amp;news_id=EBC6D4010DE24203E0540021F662AC5F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학민국 공식 전자정부 누리집 공감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://kccuk.org.uk/ko/about-korea/culture-and-arts/hallyu-korean-wave/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국문화원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹디자인 참고용 데이터 및 사진 출처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,15 +106,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="나눔스퀘어"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,27 +158,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,70 +502,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB89AAC-E402-4B54-9725-D10F308AE1F7}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
     <col min="2" max="2" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +583,14 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" location="prettyPhoto" xr:uid="{4CFFB8A6-CD73-4CAA-9A99-599F38BAB5D3}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{60040C72-A23E-4233-86BE-349BB5BAB6EE}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://kofice.or.kr/b20industry/b20_industry_03_view.asp?seq=8074" xr:uid="{4F36C26C-0CD0-4A83-A444-B4F9DEFE3C3A}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{45FC1185-6F89-4253-8CB3-4B5DC37668D1}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{48A63BFD-7F0C-468C-BBCB-D1389FD0823A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>